--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2834661.914568427</v>
+        <v>2976484.473440763</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5079142.645352745</v>
+        <v>5363396.170986423</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -668,13 +670,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>210.7826848882696</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -713,19 +715,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>228.2227601214815</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>47.09694438100799</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>124.8428791508293</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>331.4878646272649</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>167.4382648650075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -956,10 +958,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.1560102407712</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,19 +1110,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>48.38764707612767</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>350.0568322317351</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>101.7637429421853</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>162.0057120490091</v>
       </c>
       <c r="X10" t="n">
-        <v>85.32055421687491</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>187.7246397369721</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>4.427271746383433</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>172.804035614548</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.7889998200947</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>194.9918535962957</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.4038028388105</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>77.47116360343377</v>
+        <v>11.17736360794273</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.561046368149619</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.51790250874365</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2564,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.15466974967035</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0.9994897974583454</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
-        <v>49.1763584422654</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>151.8031661589856</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3427,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3554,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8121020651557</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3715,16 +3717,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>218.008057705788</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>103.9785386750304</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>55.75508921529939</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3986,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4031,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>53.40330848095741</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>264.2054304075741</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>561.2807824307325</v>
+        <v>669.5120442950811</v>
       </c>
       <c r="C2" t="n">
-        <v>538.4204564844367</v>
+        <v>646.6517183487853</v>
       </c>
       <c r="D2" t="n">
-        <v>519.168239709841</v>
+        <v>627.3995015741896</v>
       </c>
       <c r="E2" t="n">
-        <v>497.2317038981026</v>
+        <v>605.4629657624512</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>584.3791879922554</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884621</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="L2" t="n">
-        <v>475.942330131692</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1714.181193660504</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1455.826284256916</v>
       </c>
       <c r="V2" t="n">
-        <v>1394.146011559221</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.146011559221</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="X2" t="n">
-        <v>982.4260127269682</v>
+        <v>1090.657274591317</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.1291467222626</v>
+        <v>685.3200045462071</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023296</v>
+        <v>410.5729931455434</v>
       </c>
       <c r="L3" t="n">
-        <v>316.0561247023296</v>
+        <v>410.5729931455434</v>
       </c>
       <c r="M3" t="n">
-        <v>316.0561247023296</v>
+        <v>410.5729931455434</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>889.5119173879714</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>735.4320422643525</v>
+        <v>786.593921822241</v>
       </c>
       <c r="C4" t="n">
-        <v>563.4594791432685</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>400.1427062700392</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>400.1427062700392</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>228.2809320445996</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>228.2809320445996</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>84.484663552754</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1444.297549031529</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1734.89676095343</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1194.409307548383</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.940779286676</v>
+        <v>912.697840156412</v>
       </c>
       <c r="W4" t="n">
-        <v>1151.940779286676</v>
+        <v>786.593921822241</v>
       </c>
       <c r="X4" t="n">
-        <v>1151.940779286676</v>
+        <v>786.593921822241</v>
       </c>
       <c r="Y4" t="n">
-        <v>925.5980109764182</v>
+        <v>786.593921822241</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>838.359812124135</v>
+        <v>716.9127977186621</v>
       </c>
       <c r="C5" t="n">
-        <v>503.5235852279078</v>
+        <v>694.0524717723663</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>674.8002549977706</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>652.8637191860322</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>932.7282368344229</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1267.18463721222</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W5" t="n">
-        <v>1267.18463721222</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.505042420371</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y5" t="n">
-        <v>1258.208176415665</v>
+        <v>732.7207579697881</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>475.2419029331441</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>932.027809635875</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.9164667998187</v>
+        <v>1120.0757163576</v>
       </c>
       <c r="C7" t="n">
-        <v>346.9164667998187</v>
+        <v>948.1031532365157</v>
       </c>
       <c r="D7" t="n">
-        <v>346.9164667998187</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7082609526723</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>180.7082609526723</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>76.20565529896515</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1336.210203285537</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.498735893566</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="W7" t="n">
-        <v>779.6463320660793</v>
+        <v>1536.584453379923</v>
       </c>
       <c r="X7" t="n">
-        <v>537.0824355118843</v>
+        <v>1536.584453379923</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0824355118843</v>
+        <v>1310.241685069665</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>879.6780126340918</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C8" t="n">
-        <v>856.817686687796</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>837.5654699132003</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>411.5885300610579</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>390.5047522908622</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.257381456703</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1261.951848555523</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>904.4624336817722</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>904.4624336817722</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X8" t="n">
-        <v>896.7828388899235</v>
+        <v>1091.507038848244</v>
       </c>
       <c r="Y8" t="n">
-        <v>895.4859728852178</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273858</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331439</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358747</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.9975969469856</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C10" t="n">
-        <v>344.0250338259016</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D10" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1385.086614473545</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1103.375147081574</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>828.5227432540869</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X10" t="n">
-        <v>742.3403652572435</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.9975969469856</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195284</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>435.0877085798951</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>1332.080299397015</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2229.072890214134</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763892</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763892</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149978</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149978</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3624.212488149978</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3227.821138450325</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3038.200290231161</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2632.863020186051</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425907</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425907</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>1180.980547125497</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M12" t="n">
-        <v>1799.152570258806</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N12" t="n">
-        <v>1799.152570258806</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1858.04449499858</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C13" t="n">
-        <v>1858.04449499858</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D13" t="n">
-        <v>1853.572503335566</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E13" t="n">
-        <v>1687.36429748842</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>1687.36429748842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>1687.36429748842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>1543.568028996574</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>1443.79946073685</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1501.290788961008</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1727.818390166845</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>2082.507711461266</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2473.693506431517</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2851.185017307552</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>3206.613145987315</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3497.212357909216</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3624.212488149978</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3577.173874837151</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>3407.038827356286</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>3163.699479582186</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U13" t="n">
-        <v>2883.51503108249</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V13" t="n">
-        <v>2601.803563690519</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W13" t="n">
-        <v>2326.951159863032</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X13" t="n">
-        <v>2084.387263308838</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y13" t="n">
-        <v>1858.04449499858</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1658.005364581644</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1658.005364581644</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2047.588607372514</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2070.788558841238</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2070.788558841238</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2915.93320899205</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149978</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149978</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790413</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.683949090761</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>1874.963950258508</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1658.005364581644</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1417.02640348073</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1055.896804027512</v>
+        <v>589.9333192441977</v>
       </c>
       <c r="C16" t="n">
-        <v>883.9242409064284</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="D16" t="n">
-        <v>720.6074680331991</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860526</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548452</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.723616382436</v>
+        <v>2085.75427253987</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.53916788274</v>
+        <v>1805.569824040174</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.53916788274</v>
+        <v>1523.858356648203</v>
       </c>
       <c r="W16" t="n">
-        <v>1480.686764055253</v>
+        <v>1249.005952820716</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.122867501058</v>
+        <v>1006.442056266521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.896804027512</v>
+        <v>780.0992879562634</v>
       </c>
     </row>
     <row r="17">
@@ -5522,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5595,25 +5597,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>997.7119985741026</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C19" t="n">
-        <v>825.7394354530186</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="D19" t="n">
-        <v>662.4226625797893</v>
+        <v>523.3660222751939</v>
       </c>
       <c r="E19" t="n">
-        <v>496.2144567326428</v>
+        <v>357.1578164280475</v>
       </c>
       <c r="F19" t="n">
-        <v>324.3526825072032</v>
+        <v>357.1578164280475</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5710,13 +5712,13 @@
         <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840363</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286168</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.877967286168</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>409.5807935972459</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5831,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3707945649905</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2281.138926305674</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2111.003878824809</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1867.664531050709</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1867.664531050709</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1585.953063658738</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1311.100659831251</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.536763277056</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1068.536763277056</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4225.654392279956</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>4225.654392279956</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>796.7321961672538</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>796.7321961672538</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>633.4154232940245</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>467.2072174468781</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>295.3454432214385</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>129.0884735156706</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0884735156706</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.638861031707</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1023.074964477512</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>796.7321961672538</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6427,7 +6429,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>741.8809303238178</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6540,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1801.283937336665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3566.14133793372</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>3394.168774812636</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>3394.168774812636</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>3227.96056896549</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>3227.96056896549</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017632</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.90040662566</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>4035.048002798173</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>3792.484106243979</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>3566.14133793372</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>357.9938188649342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1067.07923602298</v>
+        <v>3278.556980224822</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>5017.717281294595</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>4494.193485020799</v>
       </c>
       <c r="V34" t="n">
-        <v>2001.004273426986</v>
+        <v>4212.482017628828</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.151869599499</v>
+        <v>3937.629613801341</v>
       </c>
       <c r="X34" t="n">
-        <v>1483.587973045304</v>
+        <v>3695.065717247146</v>
       </c>
       <c r="Y34" t="n">
-        <v>1257.245204735046</v>
+        <v>3468.722948936888</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195025</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614083</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409524</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1125.089101572744</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572744</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291426</v>
@@ -7260,19 +7262,19 @@
         <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1601.992572952389</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1601.992572952389</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1364.597853268922</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>937.6971232822222</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>937.6971232822222</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>511.7201834300797</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>359.5929013125329</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>359.5929013125329</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1256.585492129652</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>2153.578082946772</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>3050.570673763891</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3050.570673763891</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>1874.963950258507</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1469.626680213397</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1335.007093396027</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M42" t="n">
-        <v>1335.007093396027</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730.0686317988292</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0960686777452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>394.7792958045159</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>228.5710899573694</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>228.5710899573694</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.723616382436</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.53916788274</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1473.827700490769</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.975296663282</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>956.4114001090871</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>730.0686317988292</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2085.758852609887</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1658.858122623187</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1235.565501808187</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>809.5885619560449</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L44" t="n">
-        <v>787.9925577384986</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M44" t="n">
-        <v>1684.985148555618</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.977739372737</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3168.127008645794</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>3168.127008645794</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3298.919623067751</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2941.430208194</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2545.038858494348</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2491.096122654997</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2085.758852609887</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>580.227595397824</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="L45" t="n">
-        <v>1417.02640348073</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="M45" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N45" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.665372287236</v>
+        <v>850.3052888313965</v>
       </c>
       <c r="C46" t="n">
-        <v>983.6928091661524</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="D46" t="n">
-        <v>820.3760362929231</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E46" t="n">
-        <v>654.1678304457766</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F46" t="n">
-        <v>482.306056220337</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2205.858663863301</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2205.858663863301</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>2205.858663863301</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.590409691242</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1814.738005863755</v>
+        <v>1040.471257543462</v>
       </c>
       <c r="X46" t="n">
-        <v>1572.17410930956</v>
+        <v>1040.471257543462</v>
       </c>
       <c r="Y46" t="n">
-        <v>1345.831340999302</v>
+        <v>1040.471257543462</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>115.5109099618853</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>39.69551252341425</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>123.5844546147828</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,16 +8069,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>182.1367435982028</v>
+        <v>505.1197193675093</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761899</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178304</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.4406355808522</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8228,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>480.8559469023526</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8304,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>182.1367435982028</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N8" t="n">
-        <v>361.2933355520367</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>458.3324042602121</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>867.1867003153757</v>
+        <v>143.6953511146608</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8775,7 +8777,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>647.512965495469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>729.034814152316</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701174</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>60.86555731228486</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,16 +9008,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>784.7707473298947</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9024,7 +9026,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>339.8018586688364</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>509.0341153029024</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335774</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>728.3675687028222</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10121,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>280.6730777314198</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>324.3764525304026</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>535.9688468101303</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>585.0227355295335</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>702.6160445827084</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314398</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>392.0964168176105</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>319.4286984245092</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>660.954139937714</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>419.3774956265375</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>629.4609283187076</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>535.2713001311358</v>
+        <v>59.27133036461274</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>219.8781591069582</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.2563333981136</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>68.10191868181104</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.4948975245639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>45.91410070006327</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.67553778834485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>87.12323640527642</v>
+        <v>153.4170364007674</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.00718081154896</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>72.25298006838314</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0981677402028</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>223.079850829697</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
-        <v>115.4180415664448</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>18.44967133088753</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,13 +25125,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>66.44073542471746</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>60.88629501226333</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.6713419735843</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8393107934108</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>354.1994903629728</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>7.898449381638045</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>459782.5095736982</v>
+        <v>460470.9551092875</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459782.5095736982</v>
+        <v>462699.990718536</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459782.5095736982</v>
+        <v>462699.990718536</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369304.5661580616</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369304.5661580616</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464471.1425470376</v>
+        <v>464471.1425470377</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464471.1425470375</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>464471.1425470376</v>
+        <v>464471.1425470377</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>464471.1425470377</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369304.5661580614</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369304.5661580616</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111629</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111636</v>
+        <v>582442.668011163</v>
       </c>
       <c r="E2" t="n">
-        <v>446889.5069008821</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="F2" t="n">
-        <v>446889.5069008819</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="G2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="H2" t="n">
         <v>562030.4031374471</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>562030.4031374473</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="K2" t="n">
         <v>562030.4031374472</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="M2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>562030.4031374471</v>
+      </c>
+      <c r="O2" t="n">
+        <v>562030.4031374473</v>
+      </c>
+      <c r="P2" t="n">
         <v>562030.4031374472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>562030.4031374473</v>
-      </c>
-      <c r="L2" t="n">
-        <v>562030.4031374472</v>
-      </c>
-      <c r="M2" t="n">
-        <v>562030.4031374472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>562030.4031374474</v>
-      </c>
-      <c r="O2" t="n">
-        <v>446889.5069008821</v>
-      </c>
-      <c r="P2" t="n">
-        <v>446889.506900882</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34761.27815811224</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="F4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389558</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181975.4627459428</v>
+        <v>177548.7309407722</v>
       </c>
       <c r="C6" t="n">
-        <v>336601.1833640635</v>
+        <v>326213.844257666</v>
       </c>
       <c r="D6" t="n">
-        <v>336601.1833640637</v>
+        <v>349620.6779312782</v>
       </c>
       <c r="E6" t="n">
-        <v>224276.5309132881</v>
+        <v>224792.5839384816</v>
       </c>
       <c r="F6" t="n">
-        <v>357040.1989228899</v>
+        <v>440531.9404951219</v>
       </c>
       <c r="G6" t="n">
-        <v>338372.020400812</v>
+        <v>440531.9404951222</v>
       </c>
       <c r="H6" t="n">
+        <v>440531.9404951219</v>
+      </c>
+      <c r="I6" t="n">
         <v>440531.940495122</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>313954.6719148335</v>
+      </c>
+      <c r="K6" t="n">
+        <v>421885.3401381021</v>
+      </c>
+      <c r="L6" t="n">
+        <v>440531.9404951223</v>
+      </c>
+      <c r="M6" t="n">
+        <v>260468.0690399545</v>
+      </c>
+      <c r="N6" t="n">
         <v>440531.9404951219</v>
       </c>
-      <c r="J6" t="n">
-        <v>319809.4235523651</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>440531.9404951221</v>
       </c>
-      <c r="L6" t="n">
-        <v>440531.9404951219</v>
-      </c>
-      <c r="M6" t="n">
-        <v>329722.5803859886</v>
-      </c>
-      <c r="N6" t="n">
-        <v>440531.9404951222</v>
-      </c>
-      <c r="O6" t="n">
-        <v>357040.1989228901</v>
-      </c>
       <c r="P6" t="n">
-        <v>357040.1989228901</v>
+        <v>440531.940495122</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>189.5129868981763</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>125.6917606035315</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.6739381961188</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>147.2610006383828</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>91.14385805956795</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>253.4346751274863</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>7.527594903725827</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>228.9949569385711</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>50.23883955471075</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>299.5201544024733</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="X10" t="n">
-        <v>154.817703371778</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29566,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>101.1852207814494</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7937153846611</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598439</v>
       </c>
       <c r="Q4" t="n">
-        <v>111.8210728160673</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>443.4649875463285</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7937153846611</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N8" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>829.7957409593515</v>
+        <v>106.3043917586367</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35495,7 +35497,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>624.416184983141</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374945</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>23.43429441285305</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>761.6739668175667</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>310.3818991832499</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212494</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>690.7922068925909</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36841,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0644100977797</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>563.6797073159919</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>666.851443787899</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969938</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>369.349378528632</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>290.0087389389226</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>623.5228770382822</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>396.862408912308</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>592.0699689626836</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>512.8720662978025</v>
+        <v>36.8720965312794</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2976484.473440763</v>
+        <v>2975787.812235672</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5363396.170986423</v>
+        <v>5363396.170986421</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>374.2908062809208</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>210.7826848882696</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>124.8428791508293</v>
+        <v>106.0411373108713</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>365.2311941968098</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>167.4382648650075</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>154.1560102407712</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>158.3277681493747</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>247.3818035383296</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.7637429421853</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
-        <v>162.0057120490091</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
-        <v>172.804035614548</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="15">
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.1502903902173</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>194.9918535962957</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.0412378013742</v>
       </c>
       <c r="G19" t="n">
-        <v>11.17736360794273</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.9994897974583454</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396279</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.31046081014885</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3483,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864449</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>103.8121020651557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686113</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>186.0536603357037</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>42.31046081014885</v>
       </c>
       <c r="W46" t="n">
-        <v>264.2054304075741</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>669.5120442950811</v>
+        <v>124.1336499652903</v>
       </c>
       <c r="C2" t="n">
-        <v>646.6517183487853</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>627.3995015741896</v>
+        <v>82.02110724439882</v>
       </c>
       <c r="E2" t="n">
-        <v>605.4629657624512</v>
+        <v>60.08457143266043</v>
       </c>
       <c r="F2" t="n">
-        <v>584.3791879922554</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884621</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
         <v>38.70213529231741</v>
@@ -4333,19 +4333,19 @@
         <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516409</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516409</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516409</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="N2" t="n">
         <v>880.2445183516409</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873571</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
         <v>1361.464950229785</v>
@@ -4360,22 +4360,22 @@
         <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660504</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256916</v>
+        <v>1676.751855212283</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.336869383166</v>
+        <v>1319.262440338532</v>
       </c>
       <c r="W2" t="n">
-        <v>1098.336869383166</v>
+        <v>1319.262440338532</v>
       </c>
       <c r="X2" t="n">
-        <v>1090.657274591317</v>
+        <v>907.5424415062796</v>
       </c>
       <c r="Y2" t="n">
-        <v>685.3200045462071</v>
+        <v>502.2051714611699</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K3" t="n">
-        <v>410.5729931455434</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="L3" t="n">
-        <v>410.5729931455434</v>
+        <v>425.366440525192</v>
       </c>
       <c r="M3" t="n">
-        <v>410.5729931455434</v>
+        <v>904.3053647676199</v>
       </c>
       <c r="N3" t="n">
-        <v>889.5119173879714</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
-        <v>1368.450841630399</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786.593921822241</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>786.593921822241</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
         <v>786.593921822241</v>
@@ -4491,19 +4491,19 @@
         <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981546</v>
+        <v>165.712796873499</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925754</v>
+        <v>520.4021181679198</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>911.5879131381705</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1289.079424014206</v>
       </c>
       <c r="O4" t="n">
-        <v>1744.024492318625</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
         <v>1935.106764615871</v>
@@ -4515,25 +4515,25 @@
         <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822179</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048079</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.409307548383</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="V4" t="n">
-        <v>912.697840156412</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="W4" t="n">
-        <v>786.593921822241</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>786.593921822241</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.593921822241</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>716.9127977186621</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="C5" t="n">
-        <v>694.0524717723663</v>
+        <v>456.7375951799247</v>
       </c>
       <c r="D5" t="n">
-        <v>674.8002549977706</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>652.8637191860322</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,19 +4573,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1145.737622806746</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>734.0176239744937</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>732.7207579697881</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.0757163576</v>
+        <v>712.2527365964752</v>
       </c>
       <c r="C7" t="n">
-        <v>948.1031532365157</v>
+        <v>540.2801734753912</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
         <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1811.43685720741</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V7" t="n">
-        <v>1811.43685720741</v>
+        <v>1371.325370172994</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.584453379923</v>
+        <v>1371.325370172994</v>
       </c>
       <c r="X7" t="n">
-        <v>1536.584453379923</v>
+        <v>1128.761473618799</v>
       </c>
       <c r="Y7" t="n">
-        <v>1310.241685069665</v>
+        <v>902.4187053085409</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>568.8670150191533</v>
+        <v>379.8103493568968</v>
       </c>
       <c r="C8" t="n">
-        <v>141.9662850324534</v>
+        <v>356.950023410601</v>
       </c>
       <c r="D8" t="n">
-        <v>122.7140682578577</v>
+        <v>337.6978066360053</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>315.7612708242669</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>294.6774930540712</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>294.3788346839239</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1503.227037680497</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X8" t="n">
-        <v>1091.507038848244</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y8" t="n">
-        <v>988.7153793106834</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.7875610435608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>207.8149979224768</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1038.860194620079</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>796.2962980658845</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>569.9535297556265</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5029,7 +5029,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883225</v>
@@ -5041,31 +5041,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
         <v>5010.768376164567</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1210.799010768326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.3452565994986</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
         <v>274.1644876312681</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>2108.166209895171</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1827.981761395475</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1546.270294003504</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1271.417890176017</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.853993621822</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>802.5112253115642</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5293,16 +5293,16 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P14" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,19 +5354,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.9333192441977</v>
+        <v>859.3236365966143</v>
       </c>
       <c r="C16" t="n">
-        <v>417.9607561231137</v>
+        <v>687.3510734755303</v>
       </c>
       <c r="D16" t="n">
-        <v>417.9607561231137</v>
+        <v>687.3510734755303</v>
       </c>
       <c r="E16" t="n">
-        <v>417.9607561231137</v>
+        <v>521.1428676283838</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>349.2810934029442</v>
       </c>
       <c r="G16" t="n">
         <v>246.0989818976742</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2085.75427253987</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U16" t="n">
-        <v>1805.569824040174</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.858356648203</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.005952820716</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X16" t="n">
-        <v>1006.442056266521</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y16" t="n">
-        <v>780.0992879562634</v>
+        <v>1049.48960530868</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5527,37 +5527,37 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>686.6827951484232</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6827951484232</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>523.3660222751939</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>357.1578164280475</v>
+        <v>205.3746707809539</v>
       </c>
       <c r="F19" t="n">
-        <v>357.1578164280475</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>913.0255634586812</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6827951484232</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>1529.586448057074</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.8809303238178</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1191.617659878699</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224822</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294595</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020799</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628828</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.629613801341</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247146</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936888</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988731</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883218</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623566</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177542</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,52 +7332,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299836</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358207</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302415</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7496,13 +7496,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1370507523521</v>
+        <v>878.3707945649904</v>
       </c>
       <c r="C43" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439064</v>
       </c>
       <c r="D43" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439064</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967599</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1661.773555548329</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.062088156358</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.20968432887</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X43" t="n">
-        <v>862.6457877746757</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.3030194644177</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7651,43 +7651,43 @@
         <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7718,31 +7718,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>138.8060889717951</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>138.8060889717951</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.3052888313965</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C46" t="n">
-        <v>678.3327257103125</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103125</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E46" t="n">
-        <v>512.124519863166</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F46" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7842,16 +7842,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W46" t="n">
-        <v>1040.471257543462</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X46" t="n">
-        <v>1040.471257543462</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y46" t="n">
-        <v>1040.471257543462</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>39.69551252341425</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641989</v>
+        <v>39.87991497762145</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>123.5844546147828</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>413.0850919999614</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
         <v>505.1197193675093</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761899</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587963</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009461</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>215.3931969178304</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8221,22 +8221,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>372.0892523034619</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8306,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>378.5549082613589</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
-        <v>204.9191049629863</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>459.4832504061476</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>729.034814152316</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628395</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9175,16 +9175,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.1822253778511</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>467.1903916295194</v>
       </c>
       <c r="M21" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>844.6581757653672</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>279.576101048122</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>705.1634862205228</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>585.0227355295335</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804194</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314398</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>660.954139937714</v>
+        <v>423.2283679410452</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>59.27133036461274</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T13" t="n">
-        <v>68.10191868181104</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>62.44410961849286</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.91410070006327</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>68.10191868181101</v>
       </c>
       <c r="G19" t="n">
-        <v>153.4170364007674</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.079850829697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>122.2356629785261</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>66.44073542471746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.98949189919536</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>54.08459725294918</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>236.5838919079025</v>
       </c>
       <c r="W46" t="n">
-        <v>7.898449381638045</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464471.1425470377</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>464471.1425470377</v>
+        <v>464471.1425470376</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>464471.1425470376</v>
+        <v>464471.1425470375</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>582442.6680111629</v>
       </c>
       <c r="C2" t="n">
+        <v>582442.6680111632</v>
+      </c>
+      <c r="D2" t="n">
         <v>582442.6680111631</v>
       </c>
-      <c r="D2" t="n">
-        <v>582442.668011163</v>
-      </c>
       <c r="E2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="F2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="H2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="I2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="J2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="K2" t="n">
         <v>562030.4031374472</v>
@@ -26346,16 +26346,16 @@
         <v>562030.4031374475</v>
       </c>
       <c r="M2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="N2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>562030.4031374471</v>
       </c>
       <c r="O2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="P2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374474</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43748.40045389551</v>
+      </c>
+      <c r="I4" t="n">
         <v>43748.40045389557</v>
       </c>
-      <c r="F4" t="n">
-        <v>43748.40045389558</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43748.40045389553</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43748.40045389553</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43748.40045389556</v>
-      </c>
       <c r="J4" t="n">
-        <v>43748.40045389558</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389559</v>
       </c>
       <c r="P4" t="n">
         <v>43748.40045389556</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>177548.7309407722</v>
       </c>
       <c r="C6" t="n">
-        <v>326213.844257666</v>
+        <v>326213.8442576661</v>
       </c>
       <c r="D6" t="n">
-        <v>349620.6779312782</v>
+        <v>349620.6779312784</v>
       </c>
       <c r="E6" t="n">
-        <v>224792.5839384816</v>
+        <v>224741.5532762971</v>
       </c>
       <c r="F6" t="n">
-        <v>440531.9404951219</v>
+        <v>440480.9098329381</v>
       </c>
       <c r="G6" t="n">
-        <v>440531.9404951222</v>
+        <v>440480.9098329378</v>
       </c>
       <c r="H6" t="n">
-        <v>440531.9404951219</v>
+        <v>440480.9098329378</v>
       </c>
       <c r="I6" t="n">
-        <v>440531.940495122</v>
+        <v>440480.9098329378</v>
       </c>
       <c r="J6" t="n">
-        <v>313954.6719148335</v>
+        <v>313903.6412526489</v>
       </c>
       <c r="K6" t="n">
-        <v>421885.3401381021</v>
+        <v>421834.3094759177</v>
       </c>
       <c r="L6" t="n">
-        <v>440531.9404951223</v>
+        <v>440480.909832938</v>
       </c>
       <c r="M6" t="n">
-        <v>260468.0690399545</v>
+        <v>260417.0383777705</v>
       </c>
       <c r="N6" t="n">
-        <v>440531.9404951219</v>
+        <v>440480.9098329378</v>
       </c>
       <c r="O6" t="n">
-        <v>440531.9404951221</v>
+        <v>440480.9098329378</v>
       </c>
       <c r="P6" t="n">
-        <v>440531.940495122</v>
+        <v>440480.9098329379</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>41.35907436769389</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>189.5129868981763</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>147.2610006383828</v>
+        <v>166.0627424783408</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>53.82850041003991</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>253.4346751274863</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.527594903725827</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>120.5665845686766</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>47.50789120237593</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.5201544024733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="21">
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-2.05421208497567e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>483.7766911539676</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>483.7766911539676</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.304553167390154</v>
-      </c>
-      <c r="P2" t="n">
-        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1852207814494</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.5700052857319</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
         <v>483.7766911539676</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.293597556749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>193.0123962598439</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>357.2118800478173</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>167.4878420635545</v>
-      </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>707.2639729474873</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>455.4718870526082</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.902602543405</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="M21" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>257.8052598432934</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>563.6797073159919</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477965</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969938</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112677</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>623.5228770382822</v>
+        <v>385.7971050416133</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>36.8720965312794</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
